--- a/src/main/java/resources/testing.xlsx
+++ b/src/main/java/resources/testing.xlsx
@@ -3,31 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\navee\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2E1122-0533-45D0-8AE5-11DE8B389CCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C737D94-0E7B-48C7-8B42-C39EE4A66BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0430DB11-4E14-4D92-92B9-8BF91F571C07}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="23280" windowHeight="13224" xr2:uid="{0430DB11-4E14-4D92-92B9-8BF91F571C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="XFD10485756">Sheet1!$A$6:$D$6</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -451,15 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B7AE46-BD38-49CF-BB56-7EF26BEB9F08}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="XES1048566" workbookViewId="0">
+      <selection activeCell="XEU1048568" sqref="XEU1048568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -532,8 +523,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3"/>
+    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/java/resources/testing.xlsx
+++ b/src/main/java/resources/testing.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8C737D94-0E7B-48C7-8B42-C39EE4A66BC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CAD9C900-C35A-4A83-B087-6BBE526304A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="23280" windowHeight="13224" xr2:uid="{0430DB11-4E14-4D92-92B9-8BF91F571C07}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23304" windowHeight="13224" xr2:uid="{0430DB11-4E14-4D92-92B9-8BF91F571C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>data1</t>
   </si>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B7AE46-BD38-49CF-BB56-7EF26BEB9F08}">
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="XES1048566" workbookViewId="0">
-      <selection activeCell="XEU1048568" sqref="XEU1048568"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
     <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -467,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -494,8 +494,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -509,7 +512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -523,8 +526,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3"/>
-    <row r="1048576" spans="16384:16384" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
